--- a/www.eia.gov/electricity/monthly/xls/table_a_7_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_a_7_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table A.7.A. Relative Standard Error for Revenue from Sales of Electricity to Ultimate Customers</t>
   </si>
   <si>
-    <t>by End-Use Sector, Census Division, and State, October 2016</t>
+    <t>by End-Use Sector, Census Division, and State, November 2016</t>
   </si>
   <si>
     <t>Census Region and State</t>
@@ -1194,19 +1194,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="6">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
       </c>
       <c r="F4" s="6">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <v>1</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -1274,7 +1274,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="8">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
@@ -1334,10 +1334,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="6">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="C11" s="6">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1354,19 +1354,19 @@
         <v>16</v>
       </c>
       <c r="B12" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
         <v>0.3</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="D12" s="8">
-        <v>3</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="8">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="C13" s="8">
         <v>0.19</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="8">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1394,10 +1394,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="8">
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C14" s="8">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="8">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="6">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -1474,7 +1474,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="8">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="C18" s="8">
         <v>1</v>
@@ -1517,10 +1517,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" s="8">
         <v>0</v>
@@ -1560,7 +1560,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" s="8">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="8">
         <v>2</v>
@@ -1594,13 +1594,13 @@
         <v>28</v>
       </c>
       <c r="B24" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="8">
         <v>3</v>
       </c>
       <c r="D24" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24" s="8">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>30</v>
       </c>
       <c r="B26" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" s="8">
         <v>0</v>
@@ -1674,13 +1674,13 @@
         <v>32</v>
       </c>
       <c r="B28" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="8">
         <v>7</v>
       </c>
       <c r="D28" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" s="8">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="6">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="C29" s="6">
         <v>1</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="6">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1720,7 +1720,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E30" s="8">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="8">
         <v>1</v>
@@ -1794,19 +1794,19 @@
         <v>38</v>
       </c>
       <c r="B34" s="8">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="C34" s="8">
         <v>1</v>
       </c>
       <c r="D34" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34" s="8">
         <v>0</v>
       </c>
       <c r="F34" s="8">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="8">
         <v>1</v>
@@ -1834,10 +1834,10 @@
         <v>40</v>
       </c>
       <c r="B36" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="8">
         <v>3</v>
@@ -1874,19 +1874,19 @@
         <v>42</v>
       </c>
       <c r="B38" s="8">
-        <v>0.39</v>
+        <v>0.27</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
       </c>
       <c r="D38" s="8">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="E38" s="8">
         <v>0</v>
       </c>
       <c r="F38" s="8">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1914,7 +1914,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="8">
         <v>2</v>
@@ -1934,10 +1934,10 @@
         <v>45</v>
       </c>
       <c r="B41" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="8">
         <v>4</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1954,7 +1954,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" s="8">
         <v>3</v>
@@ -2017,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="8">
         <v>4</v>
@@ -2034,7 +2034,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="8">
         <v>1</v>
@@ -2100,7 +2100,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E50" s="8">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51" s="8">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E52" s="8">
         <v>0</v>
@@ -2174,19 +2174,19 @@
         <v>57</v>
       </c>
       <c r="B53" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E53" s="8">
         <v>0</v>
       </c>
       <c r="F53" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2200,13 +2200,13 @@
         <v>4</v>
       </c>
       <c r="D54" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54" s="8">
         <v>0</v>
       </c>
       <c r="F54" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2214,13 +2214,13 @@
         <v>59</v>
       </c>
       <c r="B55" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E55" s="8">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>61</v>
       </c>
       <c r="B57" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57" s="8">
         <v>4</v>
@@ -2274,7 +2274,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="6">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="C58" s="6">
         <v>1</v>
@@ -2294,7 +2294,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="8">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="C59" s="8">
         <v>1</v>
@@ -2320,7 +2320,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" s="8">
         <v>0</v>
@@ -2357,10 +2357,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62" s="6">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>2</v>
       </c>
       <c r="C63" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E63" s="8">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>69</v>
       </c>
       <c r="B65" s="6">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="C65" s="6">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="D65" s="6">
         <v>1</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="6">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
